--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>arixank@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Kohli</t>
-  </si>
-  <si>
-    <t>rohit@validlog.io</t>
   </si>
 </sst>
 </file>
@@ -734,12 +728,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -753,7 +742,6 @@
     <hyperlink r:id="rId8" ref="B9"/>
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
